--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R1ab50c15a92c4cc3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="Reab8cee7baf1406e"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="Reab8cee7baf1406e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R09c6aacc98d0493c"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R09c6aacc98d0493c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R032cc396f88440ea"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R032cc396f88440ea"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R61b0e2e8ae574a4c"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -27,7 +27,7 @@
     <x:font/>
     <x:font>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R61b0e2e8ae574a4c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="Ra8a7cc3c64a4456e"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="Ra8a7cc3c64a4456e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R43aa2d3d63e542e7"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R43aa2d3d63e542e7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R57e9bca1b1df4149"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R57e9bca1b1df4149"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="Rc3087483e2884e2e"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="Rc3087483e2884e2e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R413421eaf798470b"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R413421eaf798470b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R4b5c849b973845c9"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R4b5c849b973845c9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R841e2d56b18d44e2"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R841e2d56b18d44e2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R6ae771d135324ef1"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R6ae771d135324ef1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="Rbfa466c0edc54236"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="Rbfa466c0edc54236"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R9c09ae01c2c444ea"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R9c09ae01c2c444ea"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R7a23f66fd3fb4859"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R7a23f66fd3fb4859"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="Rac7064b78e794b74"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="Rac7064b78e794b74"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="Rd1b3b0fb31394c0b"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
@@ -5,8 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="Rd1b3b0fb31394c0b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="Rfceaf617794d4c2a"/>
   </x:sheets>
+  <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="Rfceaf617794d4c2a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R3d91e8242df8454b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R3d91e8242df8454b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="Rc873c93601674b70"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="Rc873c93601674b70"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R6c54685756d6469c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R6c54685756d6469c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="Rcf0e292bdf244229"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="Rcf0e292bdf244229"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R95d5446fbc8348a4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R95d5446fbc8348a4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R3b0da5b851884a2f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R3b0da5b851884a2f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="Rcabf03570cfe4a08"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="Rcabf03570cfe4a08"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R02d5cd8f2969412b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R02d5cd8f2969412b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="Re8eae8813472413e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="Re8eae8813472413e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R1a24840e252a4ea2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R1a24840e252a4ea2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R486dbf1ed77645ed"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R486dbf1ed77645ed"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="Refd2cd79b5ae48ac"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="Refd2cd79b5ae48ac"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="Ree172538dd324918"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="Ree172538dd324918"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="Rc3e624d0fc144cca"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="Rc3e624d0fc144cca"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R297e8a0cb1354b39"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R297e8a0cb1354b39"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R88a04a87c0b94411"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R88a04a87c0b94411"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R07ae3fd1f69f482d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R07ae3fd1f69f482d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="Rb31a06eef68d4755"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="Rb31a06eef68d4755"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="Rfb18873c48d6499c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="Rfb18873c48d6499c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R1511fb8e0eea4b35"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R1511fb8e0eea4b35"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R96220344d36a4029"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R96220344d36a4029"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R6693c1579c974230"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R6693c1579c974230"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R112d81596c84461f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R112d81596c84461f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="Rc3f237fe4e0c4e73"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="Rc3f237fe4e0c4e73"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="Rb643229bedf84dd9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="Rb643229bedf84dd9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R17ccb3871621407e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/05_ValueOnly.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R17ccb3871621407e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueOnly" sheetId="1" r:id="R7bfbadc975cc4dd8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
